--- a/Producto/Web/Casos de prueba/3.xlsx
+++ b/Producto/Web/Casos de prueba/3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DatosGenerales" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Pasos" sheetId="2" r:id="rId3"/>
     <sheet name="Control de cambios" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -79,12 +79,6 @@
     <t>La playa &lt;playa1&gt; está cargada en la base de datos y esta activa</t>
   </si>
   <si>
-    <t>&lt;PlayaNombre1&gt; es el nombre de la playa &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t>Ingreso &lt;PlayaNombre1&gt; en el campo nombre de playa</t>
-  </si>
-  <si>
     <t>Presiono el boton buscar</t>
   </si>
   <si>
@@ -106,12 +100,6 @@
     <t>Presiono el boton eliminar de la fila que contiene la playa de estacionamiento &lt;Playa1&gt;</t>
   </si>
   <si>
-    <t>Se muestra el siguiente mesaje confirmacion "Esta seguro que desea eliminar la playa &lt;PlayaNombre1&gt;"</t>
-  </si>
-  <si>
-    <t>Se muestra un mensaje que diga: "La playa &lt;PlayaNombre1&gt; ha sido eliminada con éxito"</t>
-  </si>
-  <si>
     <t>Corroborar que la playa de estacionamiento &lt;Playa1&gt; tiene como fecha de baja la fecha actual</t>
   </si>
   <si>
@@ -125,13 +113,25 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>"CPA_Playa1" es el nombre de la playa &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t>Ingreso "CPA_Playa1" en el campo nombre de playa</t>
+  </si>
+  <si>
+    <t>Se muestra el siguiente mesaje confirmacion "Esta seguro que desea eliminar la playa CPA_Playa1"</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje que diga: "La playa CPA_Playa1 ha sido eliminada con éxito"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,7 +397,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -432,7 +431,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -608,47 +606,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="26.25" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="32.25" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -656,7 +654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -665,7 +663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -673,7 +671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -691,20 +689,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -715,7 +713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="26.25" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -723,12 +721,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -740,21 +738,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -768,73 +766,73 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="26.25" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="26.25" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="26.25" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="26.25" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="26.25" thickBot="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="38.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -846,14 +844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -861,7 +859,7 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -878,7 +876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="38.25">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -889,7 +887,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>18</v>

--- a/Producto/Web/Casos de prueba/3.xlsx
+++ b/Producto/Web/Casos de prueba/3.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -100,12 +100,6 @@
     <t>Presiono el boton eliminar de la fila que contiene la playa de estacionamiento &lt;Playa1&gt;</t>
   </si>
   <si>
-    <t>Corroborar que la playa de estacionamiento &lt;Playa1&gt; tiene como fecha de baja la fecha actual</t>
-  </si>
-  <si>
-    <t>La playa de estacionamiento &lt;Playa1&gt; tiene como valor en el campo fecha de baja la fecha actual</t>
-  </si>
-  <si>
     <t>Eliminar playa de estacionamiento</t>
   </si>
   <si>
@@ -125,6 +119,9 @@
   </si>
   <si>
     <t>Se muestra un mensaje que diga: "La playa CPA_Playa1 ha sido eliminada con éxito"</t>
+  </si>
+  <si>
+    <t>Aparece una tabla que no contiene la playa de estacionamiento &lt;Playa1&gt;</t>
   </si>
 </sst>
 </file>
@@ -624,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="12"/>
     </row>
@@ -633,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="12"/>
     </row>
@@ -642,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="13"/>
     </row>
@@ -660,7 +657,7 @@
       </c>
       <c r="B5" s="11">
         <f>MAX(Pasos!A:A)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickBot="1">
@@ -726,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -739,10 +736,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -783,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="1"/>
@@ -808,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -820,19 +817,28 @@
         <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="38.25">
+    <row r="7" spans="1:4" ht="26.25" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="25.5">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
